--- a/ch2图表.xlsx
+++ b/ch2图表.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\line plot draw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\line plot draw\Draw-Python-plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED72346-11E8-4E15-8636-EBA12D5CF42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5F0DC5-8648-4E54-9DE1-1B46384D5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Throughput (Gbps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +64,18 @@
   </si>
   <si>
     <t>Number of QPs on RDMA NIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance change as the number of nodes increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +421,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -563,4 +587,101 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6A122D-7074-4476-AFC6-DCCF099592EE}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>256</v>
+      </c>
+      <c r="B3">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>512</v>
+      </c>
+      <c r="B4">
+        <f>3*10^-6</f>
+        <v>3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <f>7*10^-6</f>
+        <v>6.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <f>8*10^-5</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4000</v>
+      </c>
+      <c r="B7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20000</v>
+      </c>
+      <c r="B9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ch2图表.xlsx
+++ b/ch2图表.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\line plot draw\Draw-Python-plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5F0DC5-8648-4E54-9DE1-1B46384D5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6677E13A-BAEE-4174-AE49-796C697DF948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Throughput (Gbps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +77,14 @@
   </si>
   <si>
     <t>Loss rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRC Throughput (Gbps)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,10 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -433,15 +445,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -604,10 +616,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -684,4 +696,221 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD8472-633F-4F60-AF30-EC87B2FA8DFB}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.9140625" customWidth="1"/>
+    <col min="3" max="4" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>256</v>
+      </c>
+      <c r="B3" s="1">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1">
+        <v>95.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>92.6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>512</v>
+      </c>
+      <c r="B4" s="1">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D5" s="1">
+        <v>82.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1">
+        <v>72.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>78.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6500</v>
+      </c>
+      <c r="B8" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>13.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>